--- a/data/coded_segments/md_2_1.xlsx
+++ b/data/coded_segments/md_2_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963170F6-8343-F846-AEB4-73B242ECE4D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDC940B-7D9D-7B4C-9945-66E93F88ED8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="1112">
   <si>
     <t>Color</t>
   </si>
@@ -2020,12 +2020,6 @@
     <t>MIC&gt;32</t>
   </si>
   <si>
-    <t>3: 2618</t>
-  </si>
-  <si>
-    <t>3: 2627</t>
-  </si>
-  <si>
     <t>3: 2633</t>
   </si>
   <si>
@@ -3357,6 +3351,42 @@
   </si>
   <si>
     <t>2014</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/23/19 15:57:00</t>
+  </si>
+  <si>
+    <t>1/23/19 15:57:13</t>
+  </si>
+  <si>
+    <t>1/23/19 15:58:09</t>
+  </si>
+  <si>
+    <t>1/29/19 16:22:07</t>
+  </si>
+  <si>
+    <t>1/29/19 16:22:41</t>
+  </si>
+  <si>
+    <t>3: 2618</t>
+  </si>
+  <si>
+    <t>3: 2627</t>
+  </si>
+  <si>
+    <t>1/29/19 16:29:58</t>
+  </si>
+  <si>
+    <t>1/29/19 16:31:17</t>
+  </si>
+  <si>
+    <t>1/29/19 16:31:49</t>
+  </si>
+  <si>
+    <t>1/29/19 16:32:41</t>
   </si>
 </sst>
 </file>
@@ -3821,7 +3851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M455"/>
+  <dimension ref="A1:M462"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13977,7 +14007,7 @@
         <v>621</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>659</v>
@@ -13989,13 +14019,13 @@
         <v>0</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="J248" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K248" s="4">
-        <v>4.6345999999999998E-2</v>
+        <v>9.2689999999999995E-3</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>20</v>
@@ -14018,13 +14048,13 @@
         <v>621</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H249" s="3">
         <v>0</v>
@@ -14059,7 +14089,7 @@
         <v>621</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>661</v>
@@ -14071,19 +14101,19 @@
         <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>390</v>
+        <v>663</v>
       </c>
       <c r="J250" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K250" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>4.1710999999999998E-2</v>
       </c>
       <c r="L250" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14100,31 +14130,31 @@
         <v>621</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G251" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J251" s="3">
+        <v>2</v>
+      </c>
+      <c r="K251" s="4">
+        <v>9.2689999999999995E-3</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M251" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="H251" s="3">
-        <v>0</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="J251" s="3">
-        <v>9</v>
-      </c>
-      <c r="K251" s="4">
-        <v>4.1710999999999998E-2</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M251" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14141,7 +14171,7 @@
         <v>621</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>667</v>
@@ -14153,19 +14183,19 @@
         <v>0</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>390</v>
+        <v>669</v>
       </c>
       <c r="J252" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K252" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>0.106595</v>
       </c>
       <c r="L252" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14182,7 +14212,7 @@
         <v>621</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>667</v>
@@ -14194,19 +14224,19 @@
         <v>0</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>390</v>
+        <v>669</v>
       </c>
       <c r="J253" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K253" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>0.106595</v>
       </c>
       <c r="L253" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14223,31 +14253,31 @@
         <v>621</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H254" s="3">
         <v>0</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J254" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K254" s="4">
-        <v>0.106595</v>
+        <v>1.3904E-2</v>
       </c>
       <c r="L254" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14264,31 +14294,31 @@
         <v>621</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J255" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K255" s="4">
-        <v>0.106595</v>
+        <v>1.3904E-2</v>
       </c>
       <c r="L255" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14305,31 +14335,31 @@
         <v>621</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H256" s="3">
         <v>0</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J256" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K256" s="4">
-        <v>1.3904E-2</v>
+        <v>3.7076999999999999E-2</v>
       </c>
       <c r="L256" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14346,31 +14376,31 @@
         <v>621</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J257" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K257" s="4">
-        <v>1.3904E-2</v>
+        <v>3.7076999999999999E-2</v>
       </c>
       <c r="L257" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14387,31 +14417,31 @@
         <v>621</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>677</v>
+        <v>390</v>
       </c>
       <c r="J258" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K258" s="4">
-        <v>3.7076999999999999E-2</v>
+        <v>9.2689999999999995E-3</v>
       </c>
       <c r="L258" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14431,28 +14461,28 @@
         <v>268</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H259" s="3">
         <v>0</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>677</v>
+        <v>390</v>
       </c>
       <c r="J259" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K259" s="4">
-        <v>3.7076999999999999E-2</v>
+        <v>9.2689999999999995E-3</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14469,7 +14499,7 @@
         <v>621</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>678</v>
@@ -14481,19 +14511,19 @@
         <v>0</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>390</v>
+        <v>680</v>
       </c>
       <c r="J260" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K260" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>4.1710999999999998E-2</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14510,7 +14540,7 @@
         <v>621</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>678</v>
@@ -14522,19 +14552,19 @@
         <v>0</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>390</v>
+        <v>680</v>
       </c>
       <c r="J261" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K261" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>4.1710999999999998E-2</v>
       </c>
       <c r="L261" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14551,31 +14581,31 @@
         <v>621</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G262" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J262" s="3">
+        <v>3</v>
+      </c>
+      <c r="K262" s="4">
+        <v>1.3904E-2</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M262" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="H262" s="3">
-        <v>0</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J262" s="3">
-        <v>9</v>
-      </c>
-      <c r="K262" s="4">
-        <v>4.1710999999999998E-2</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14595,28 +14625,28 @@
         <v>269</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G263" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J263" s="3">
+        <v>3</v>
+      </c>
+      <c r="K263" s="4">
+        <v>1.3904E-2</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M263" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="H263" s="3">
-        <v>0</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J263" s="3">
-        <v>9</v>
-      </c>
-      <c r="K263" s="4">
-        <v>4.1710999999999998E-2</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14633,7 +14663,7 @@
         <v>621</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>684</v>
@@ -14645,19 +14675,19 @@
         <v>0</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>360</v>
+        <v>686</v>
       </c>
       <c r="J264" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K264" s="4">
-        <v>1.3904E-2</v>
+        <v>4.6345999999999998E-2</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14674,7 +14704,7 @@
         <v>621</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>684</v>
@@ -14686,19 +14716,19 @@
         <v>0</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>360</v>
+        <v>686</v>
       </c>
       <c r="J265" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K265" s="4">
-        <v>1.3904E-2</v>
+        <v>4.6345999999999998E-2</v>
       </c>
       <c r="L265" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14715,31 +14745,31 @@
         <v>621</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H266" s="3">
         <v>0</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J266" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K266" s="4">
-        <v>4.6345999999999998E-2</v>
+        <v>9.2689999999999995E-3</v>
       </c>
       <c r="L266" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14756,31 +14786,31 @@
         <v>621</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H267" s="3">
         <v>0</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J267" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K267" s="4">
-        <v>4.6345999999999998E-2</v>
+        <v>9.2689999999999995E-3</v>
       </c>
       <c r="L267" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14797,31 +14827,31 @@
         <v>621</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H268" s="3">
         <v>0</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>691</v>
+        <v>149</v>
       </c>
       <c r="J268" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K268" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>2.7806999999999998E-2</v>
       </c>
       <c r="L268" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14838,31 +14868,31 @@
         <v>621</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H269" s="3">
         <v>0</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="J269" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K269" s="4">
-        <v>9.2689999999999995E-3</v>
+        <v>4.1710999999999998E-2</v>
       </c>
       <c r="L269" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14879,31 +14909,31 @@
         <v>621</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="F270" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="J270" s="3">
+        <v>64</v>
+      </c>
+      <c r="K270" s="4">
+        <v>0.29661199999999999</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M270" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="H270" s="3">
-        <v>0</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J270" s="3">
-        <v>6</v>
-      </c>
-      <c r="K270" s="4">
-        <v>2.7806999999999998E-2</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M270" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14917,34 +14947,34 @@
         <v>14</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="H271" s="3">
         <v>0</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="J271" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K271" s="4">
-        <v>4.1710999999999998E-2</v>
+        <v>3.3246999999999999E-2</v>
       </c>
       <c r="L271" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14958,34 +14988,34 @@
         <v>14</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>139</v>
+        <v>583</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H272" s="3">
         <v>0</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="J272" s="3">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="K272" s="4">
-        <v>0.29661199999999999</v>
+        <v>0.10789799999999999</v>
       </c>
       <c r="L272" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14999,34 +15029,34 @@
         <v>14</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>702</v>
+        <v>304</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="H273" s="3">
         <v>0</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="J273" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K273" s="4">
-        <v>3.3246999999999999E-2</v>
+        <v>1.4166E-2</v>
       </c>
       <c r="L273" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15040,34 +15070,34 @@
         <v>14</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>583</v>
+        <v>16</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>708</v>
+        <v>432</v>
       </c>
       <c r="H274" s="3">
         <v>0</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>709</v>
+        <v>135</v>
       </c>
       <c r="J274" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K274" s="4">
-        <v>0.10789799999999999</v>
+        <v>1.5768999999999998E-2</v>
       </c>
       <c r="L274" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15081,75 +15111,75 @@
         <v>14</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>304</v>
+        <v>636</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H275" s="3">
         <v>0</v>
       </c>
       <c r="I275" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J275" s="3">
+        <v>3</v>
+      </c>
+      <c r="K275" s="4">
+        <v>2.3654000000000001E-2</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="J275" s="3">
-        <v>9</v>
-      </c>
-      <c r="K275" s="4">
-        <v>1.4166E-2</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="2" t="s">
+      <c r="E276" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J276" s="3">
+        <v>40</v>
+      </c>
+      <c r="K276" s="4">
+        <v>0.31538300000000002</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M276" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H276" s="3">
-        <v>0</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J276" s="3">
-        <v>2</v>
-      </c>
-      <c r="K276" s="4">
-        <v>1.5768999999999998E-2</v>
-      </c>
-      <c r="L276" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15163,37 +15193,37 @@
         <v>14</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H277" s="3">
         <v>0</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>93</v>
+        <v>722</v>
       </c>
       <c r="J277" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K277" s="4">
-        <v>2.3654000000000001E-2</v>
+        <v>0.149807</v>
       </c>
       <c r="L277" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>13</v>
       </c>
@@ -15204,34 +15234,34 @@
         <v>14</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="H278" s="3">
         <v>0</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="J278" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K278" s="4">
-        <v>0.31538300000000002</v>
+        <v>5.5191999999999998E-2</v>
       </c>
       <c r="L278" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15245,34 +15275,34 @@
         <v>14</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="H279" s="3">
         <v>0</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="J279" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K279" s="4">
-        <v>0.149807</v>
+        <v>7.8845999999999999E-2</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15286,34 +15316,34 @@
         <v>14</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H280" s="3">
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>728</v>
+        <v>412</v>
       </c>
       <c r="J280" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K280" s="4">
-        <v>5.5191999999999998E-2</v>
+        <v>0.10249900000000001</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15327,37 +15357,37 @@
         <v>14</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="G281" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J281" s="3">
+        <v>12</v>
+      </c>
+      <c r="K281" s="4">
+        <v>9.4615000000000005E-2</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M281" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H281" s="3">
-        <v>0</v>
-      </c>
-      <c r="I281" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="J281" s="3">
-        <v>10</v>
-      </c>
-      <c r="K281" s="4">
-        <v>7.8845999999999999E-2</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>13</v>
       </c>
@@ -15368,34 +15398,34 @@
         <v>14</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="H282" s="3">
         <v>0</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>412</v>
+        <v>738</v>
       </c>
       <c r="J282" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K282" s="4">
-        <v>0.10249900000000001</v>
+        <v>0.110384</v>
       </c>
       <c r="L282" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15409,37 +15439,37 @@
         <v>14</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="H283" s="3">
         <v>0</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>737</v>
+        <v>545</v>
       </c>
       <c r="J283" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K283" s="4">
-        <v>9.4615000000000005E-2</v>
+        <v>1.4265E-2</v>
       </c>
       <c r="L283" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>13</v>
       </c>
@@ -15450,34 +15480,34 @@
         <v>14</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="H284" s="3">
         <v>0</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="J284" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K284" s="4">
-        <v>0.110384</v>
+        <v>6.3076999999999994E-2</v>
       </c>
       <c r="L284" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15491,34 +15521,34 @@
         <v>14</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="H285" s="3">
         <v>0</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>545</v>
+        <v>748</v>
       </c>
       <c r="J285" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K285" s="4">
-        <v>1.4265E-2</v>
+        <v>7.1327000000000002E-2</v>
       </c>
       <c r="L285" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15532,34 +15562,34 @@
         <v>14</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G286" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="J286" s="3">
+        <v>2</v>
+      </c>
+      <c r="K286" s="4">
+        <v>1.4265E-2</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M286" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="H286" s="3">
-        <v>0</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="J286" s="3">
-        <v>8</v>
-      </c>
-      <c r="K286" s="4">
-        <v>6.3076999999999994E-2</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M286" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15573,34 +15603,34 @@
         <v>14</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H287" s="3">
         <v>0</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J287" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K287" s="4">
-        <v>7.1327000000000002E-2</v>
+        <v>1.4265E-2</v>
       </c>
       <c r="L287" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15614,34 +15644,34 @@
         <v>14</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H288" s="3">
         <v>0</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J288" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K288" s="4">
-        <v>1.4265E-2</v>
+        <v>2.1398E-2</v>
       </c>
       <c r="L288" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15655,37 +15685,37 @@
         <v>14</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="H289" s="3">
         <v>0</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="J289" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K289" s="4">
-        <v>1.4265E-2</v>
+        <v>2.8531000000000001E-2</v>
       </c>
       <c r="L289" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>13</v>
       </c>
@@ -15696,34 +15726,34 @@
         <v>14</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G290" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="J290" s="3">
+        <v>27</v>
+      </c>
+      <c r="K290" s="4">
+        <v>0.192582</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M290" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="H290" s="3">
-        <v>0</v>
-      </c>
-      <c r="I290" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="J290" s="3">
-        <v>3</v>
-      </c>
-      <c r="K290" s="4">
-        <v>2.1398E-2</v>
-      </c>
-      <c r="L290" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M290" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15737,37 +15767,37 @@
         <v>14</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>162</v>
+        <v>762</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="H291" s="3">
         <v>0</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="J291" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K291" s="4">
-        <v>2.8531000000000001E-2</v>
+        <v>4.2796000000000001E-2</v>
       </c>
       <c r="L291" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>13</v>
       </c>
@@ -15778,34 +15808,34 @@
         <v>14</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>761</v>
+        <v>495</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="H292" s="3">
         <v>0</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="J292" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K292" s="4">
-        <v>0.192582</v>
+        <v>0.28698499999999999</v>
       </c>
       <c r="L292" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15819,34 +15849,34 @@
         <v>14</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>764</v>
+        <v>303</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="H293" s="3">
         <v>0</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="J293" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K293" s="4">
-        <v>4.2796000000000001E-2</v>
+        <v>3.3856999999999998E-2</v>
       </c>
       <c r="L293" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15860,34 +15890,34 @@
         <v>14</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>495</v>
+        <v>304</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H294" s="3">
         <v>0</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="J294" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K294" s="4">
-        <v>0.28698499999999999</v>
+        <v>4.8120000000000003E-3</v>
       </c>
       <c r="L294" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15901,34 +15931,34 @@
         <v>14</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="H295" s="3">
         <v>0</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="J295" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K295" s="4">
-        <v>3.3856999999999998E-2</v>
+        <v>0.14091600000000001</v>
       </c>
       <c r="L295" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15942,34 +15972,34 @@
         <v>14</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>304</v>
+        <v>785</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="H296" s="3">
         <v>0</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="J296" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K296" s="4">
-        <v>4.8120000000000003E-3</v>
+        <v>5.5005999999999999E-2</v>
       </c>
       <c r="L296" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15983,34 +16013,34 @@
         <v>14</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="H297" s="3">
         <v>0</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="J297" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K297" s="4">
-        <v>0.14091600000000001</v>
+        <v>3.6670000000000001E-2</v>
       </c>
       <c r="L297" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16024,34 +16054,34 @@
         <v>14</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="G298" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H298" s="3">
+        <v>0</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J298" s="3">
+        <v>2</v>
+      </c>
+      <c r="K298" s="4">
+        <v>1.2222999999999999E-2</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M298" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="H298" s="3">
-        <v>0</v>
-      </c>
-      <c r="I298" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="J298" s="3">
-        <v>9</v>
-      </c>
-      <c r="K298" s="4">
-        <v>5.5005999999999999E-2</v>
-      </c>
-      <c r="L298" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M298" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16065,34 +16095,34 @@
         <v>14</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H299" s="3">
         <v>0</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>793</v>
+        <v>549</v>
       </c>
       <c r="J299" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K299" s="4">
-        <v>3.6670000000000001E-2</v>
+        <v>3.0558999999999999E-2</v>
       </c>
       <c r="L299" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16106,34 +16136,34 @@
         <v>14</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E300" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J300" s="3">
         <v>16</v>
       </c>
-      <c r="F300" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H300" s="3">
-        <v>0</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="J300" s="3">
-        <v>2</v>
-      </c>
       <c r="K300" s="4">
-        <v>1.2222999999999999E-2</v>
+        <v>9.7788E-2</v>
       </c>
       <c r="L300" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16147,34 +16177,34 @@
         <v>14</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="H301" s="3">
         <v>0</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>549</v>
+        <v>802</v>
       </c>
       <c r="J301" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K301" s="4">
-        <v>3.0558999999999999E-2</v>
+        <v>0.116123</v>
       </c>
       <c r="L301" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16188,34 +16218,34 @@
         <v>14</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="H302" s="3">
         <v>0</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="J302" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K302" s="4">
-        <v>9.7788E-2</v>
+        <v>8.5564000000000001E-2</v>
       </c>
       <c r="L302" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16229,34 +16259,34 @@
         <v>14</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H303" s="3">
         <v>0</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="J303" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K303" s="4">
-        <v>0.116123</v>
+        <v>8.5564000000000001E-2</v>
       </c>
       <c r="L303" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16270,34 +16300,34 @@
         <v>14</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G304" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H304" s="3">
+        <v>0</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="J304" s="3">
+        <v>7</v>
+      </c>
+      <c r="K304" s="4">
+        <v>4.2782000000000001E-2</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M304" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="H304" s="3">
-        <v>0</v>
-      </c>
-      <c r="I304" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="J304" s="3">
-        <v>14</v>
-      </c>
-      <c r="K304" s="4">
-        <v>8.5564000000000001E-2</v>
-      </c>
-      <c r="L304" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M304" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16311,34 +16341,34 @@
         <v>14</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G305" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="J305" s="3">
+        <v>7</v>
+      </c>
+      <c r="K305" s="4">
+        <v>4.2782000000000001E-2</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M305" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="H305" s="3">
-        <v>0</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="J305" s="3">
-        <v>14</v>
-      </c>
-      <c r="K305" s="4">
-        <v>8.5564000000000001E-2</v>
-      </c>
-      <c r="L305" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M305" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16352,34 +16382,34 @@
         <v>14</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H306" s="3">
         <v>0</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J306" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K306" s="4">
-        <v>4.2782000000000001E-2</v>
+        <v>6.1116999999999998E-2</v>
       </c>
       <c r="L306" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16393,198 +16423,198 @@
         <v>14</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E307" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H307" s="3">
+        <v>0</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J307" s="3">
+        <v>10</v>
+      </c>
+      <c r="K307" s="4">
+        <v>6.1116999999999998E-2</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H308" s="3">
+        <v>0</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="J308" s="3">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4">
+        <v>6.7228999999999997E-2</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F307" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="H307" s="3">
-        <v>0</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="J307" s="3">
-        <v>7</v>
-      </c>
-      <c r="K307" s="4">
-        <v>4.2782000000000001E-2</v>
-      </c>
-      <c r="L307" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M307" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E308" s="1" t="s">
+      <c r="F309" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H309" s="3">
+        <v>0</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="J309" s="3">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4">
+        <v>6.7228999999999997E-2</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F308" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="H308" s="3">
-        <v>0</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="J308" s="3">
-        <v>10</v>
-      </c>
-      <c r="K308" s="4">
-        <v>6.1116999999999998E-2</v>
-      </c>
-      <c r="L308" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M308" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="H309" s="3">
-        <v>0</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="J309" s="3">
-        <v>10</v>
-      </c>
-      <c r="K309" s="4">
-        <v>6.1116999999999998E-2</v>
-      </c>
-      <c r="L309" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M309" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F310" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G310" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H310" s="3">
+        <v>0</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J310" s="3">
+        <v>8</v>
+      </c>
+      <c r="K310" s="4">
+        <v>4.8894E-2</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F311" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="H310" s="3">
-        <v>0</v>
-      </c>
-      <c r="I310" s="2" t="s">
+      <c r="G311" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="J310" s="3">
-        <v>11</v>
-      </c>
-      <c r="K310" s="4">
-        <v>6.7228999999999997E-2</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M310" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="H311" s="3">
         <v>0</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J311" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K311" s="4">
-        <v>6.7228999999999997E-2</v>
+        <v>4.8894E-2</v>
       </c>
       <c r="L311" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16598,34 +16628,34 @@
         <v>14</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H312" s="3">
         <v>0</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="J312" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K312" s="4">
-        <v>4.8894E-2</v>
+        <v>5.5005999999999999E-2</v>
       </c>
       <c r="L312" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16639,34 +16669,34 @@
         <v>14</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H313" s="3">
         <v>0</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="J313" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K313" s="4">
-        <v>4.8894E-2</v>
+        <v>5.5005999999999999E-2</v>
       </c>
       <c r="L313" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16680,34 +16710,34 @@
         <v>14</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G314" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H314" s="3">
+        <v>0</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J314" s="3">
+        <v>12</v>
+      </c>
+      <c r="K314" s="4">
+        <v>7.3341000000000003E-2</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M314" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="H314" s="3">
-        <v>0</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J314" s="3">
-        <v>9</v>
-      </c>
-      <c r="K314" s="4">
-        <v>5.5005999999999999E-2</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M314" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16721,37 +16751,37 @@
         <v>14</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G315" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H315" s="3">
+        <v>0</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J315" s="3">
+        <v>12</v>
+      </c>
+      <c r="K315" s="4">
+        <v>7.3341000000000003E-2</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M315" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="H315" s="3">
-        <v>0</v>
-      </c>
-      <c r="I315" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J315" s="3">
-        <v>9</v>
-      </c>
-      <c r="K315" s="4">
-        <v>5.5005999999999999E-2</v>
-      </c>
-      <c r="L315" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M315" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>13</v>
       </c>
@@ -16762,157 +16792,157 @@
         <v>14</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E316" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H316" s="3">
+        <v>0</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="J316" s="3">
+        <v>10</v>
+      </c>
+      <c r="K316" s="4">
+        <v>6.1116999999999998E-2</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A317" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H317" s="3">
+        <v>0</v>
+      </c>
+      <c r="I317" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="J317" s="3">
+        <v>10</v>
+      </c>
+      <c r="K317" s="4">
+        <v>6.1116999999999998E-2</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M317" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F316" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H316" s="3">
-        <v>0</v>
-      </c>
-      <c r="I316" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="J316" s="3">
-        <v>12</v>
-      </c>
-      <c r="K316" s="4">
-        <v>7.3341000000000003E-2</v>
-      </c>
-      <c r="L316" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M316" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H317" s="3">
-        <v>0</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="J317" s="3">
-        <v>12</v>
-      </c>
-      <c r="K317" s="4">
-        <v>7.3341000000000003E-2</v>
-      </c>
-      <c r="L317" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M317" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="F318" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G318" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H318" s="3">
+        <v>0</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="J318" s="3">
+        <v>29</v>
+      </c>
+      <c r="K318" s="4">
+        <v>0.17724000000000001</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F319" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="H318" s="3">
-        <v>0</v>
-      </c>
-      <c r="I318" s="2" t="s">
+      <c r="G319" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="J318" s="3">
-        <v>10</v>
-      </c>
-      <c r="K318" s="4">
-        <v>6.1116999999999998E-2</v>
-      </c>
-      <c r="L318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M318" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A319" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="H319" s="3">
         <v>0</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J319" s="3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K319" s="4">
-        <v>6.1116999999999998E-2</v>
+        <v>0.17724000000000001</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M319" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="320" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16926,34 +16956,34 @@
         <v>14</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H320" s="3">
         <v>0</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J320" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="K320" s="4">
-        <v>0.17724000000000001</v>
+        <v>7.3341000000000003E-2</v>
       </c>
       <c r="L320" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16967,34 +16997,34 @@
         <v>14</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H321" s="3">
         <v>0</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J321" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="K321" s="4">
-        <v>0.17724000000000001</v>
+        <v>7.3341000000000003E-2</v>
       </c>
       <c r="L321" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17008,34 +17038,34 @@
         <v>14</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H322" s="3">
         <v>0</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J322" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K322" s="4">
-        <v>7.3341000000000003E-2</v>
+        <v>5.5005999999999999E-2</v>
       </c>
       <c r="L322" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17049,34 +17079,34 @@
         <v>14</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H323" s="3">
         <v>0</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J323" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K323" s="4">
-        <v>7.3341000000000003E-2</v>
+        <v>5.5005999999999999E-2</v>
       </c>
       <c r="L323" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M323" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17090,22 +17120,22 @@
         <v>14</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H324" s="3">
         <v>0</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J324" s="3">
         <v>9</v>
@@ -17117,7 +17147,7 @@
         <v>20</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17131,22 +17161,22 @@
         <v>14</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H325" s="3">
         <v>0</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J325" s="3">
         <v>9</v>
@@ -17158,7 +17188,7 @@
         <v>20</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17172,34 +17202,34 @@
         <v>14</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G326" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="H326" s="3">
+        <v>0</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J326" s="3">
+        <v>8</v>
+      </c>
+      <c r="K326" s="4">
+        <v>4.8894E-2</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M326" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="H326" s="3">
-        <v>0</v>
-      </c>
-      <c r="I326" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="J326" s="3">
-        <v>9</v>
-      </c>
-      <c r="K326" s="4">
-        <v>5.5005999999999999E-2</v>
-      </c>
-      <c r="L326" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M326" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17213,34 +17243,34 @@
         <v>14</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>786</v>
+        <v>845</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>841</v>
+        <v>338</v>
       </c>
       <c r="H327" s="3">
         <v>0</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="J327" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K327" s="4">
-        <v>5.5005999999999999E-2</v>
+        <v>1.0145E-2</v>
       </c>
       <c r="L327" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M327" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17254,34 +17284,34 @@
         <v>14</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>786</v>
+        <v>845</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H328" s="3">
         <v>0</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="J328" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K328" s="4">
-        <v>4.8894E-2</v>
+        <v>1.0145E-2</v>
       </c>
       <c r="L328" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M328" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17295,34 +17325,34 @@
         <v>14</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F329" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H329" s="3">
+        <v>0</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J329" s="3">
+        <v>4</v>
+      </c>
+      <c r="K329" s="4">
+        <v>2.0289999999999999E-2</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M329" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H329" s="3">
-        <v>0</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="J329" s="3">
-        <v>2</v>
-      </c>
-      <c r="K329" s="4">
-        <v>1.0145E-2</v>
-      </c>
-      <c r="L329" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M329" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17336,34 +17366,34 @@
         <v>14</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="H330" s="3">
         <v>0</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>853</v>
+        <v>523</v>
       </c>
       <c r="J330" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K330" s="4">
-        <v>1.0145E-2</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="L330" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M330" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17377,34 +17407,34 @@
         <v>14</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H331" s="3">
         <v>0</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>523</v>
+        <v>45</v>
       </c>
       <c r="J331" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K331" s="4">
-        <v>2.0289999999999999E-2</v>
+        <v>2.5363E-2</v>
       </c>
       <c r="L331" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M331" s="1" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17418,22 +17448,22 @@
         <v>14</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="H332" s="3">
         <v>0</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>523</v>
+        <v>861</v>
       </c>
       <c r="J332" s="3">
         <v>4</v>
@@ -17445,7 +17475,7 @@
         <v>20</v>
       </c>
       <c r="M332" s="1" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17459,34 +17489,34 @@
         <v>14</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F333" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H333" s="3">
+        <v>0</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J333" s="3">
+        <v>4</v>
+      </c>
+      <c r="K333" s="4">
+        <v>2.0289999999999999E-2</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M333" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="H333" s="3">
-        <v>0</v>
-      </c>
-      <c r="I333" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J333" s="3">
-        <v>5</v>
-      </c>
-      <c r="K333" s="4">
-        <v>2.5363E-2</v>
-      </c>
-      <c r="L333" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M333" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17500,22 +17530,22 @@
         <v>14</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F334" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H334" s="3">
+        <v>0</v>
+      </c>
+      <c r="I334" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="H334" s="3">
-        <v>0</v>
-      </c>
-      <c r="I334" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="J334" s="3">
         <v>4</v>
@@ -17527,7 +17557,7 @@
         <v>20</v>
       </c>
       <c r="M334" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17541,34 +17571,34 @@
         <v>14</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="H335" s="3">
         <v>0</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="J335" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K335" s="4">
-        <v>2.0289999999999999E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L335" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17582,34 +17612,34 @@
         <v>14</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="H336" s="3">
         <v>0</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="J336" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K336" s="4">
-        <v>2.0289999999999999E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L336" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17623,37 +17653,37 @@
         <v>14</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H337" s="3">
         <v>0</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>871</v>
+        <v>165</v>
       </c>
       <c r="J337" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K337" s="4">
-        <v>4.0579999999999998E-2</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>13</v>
       </c>
@@ -17664,34 +17694,34 @@
         <v>14</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>872</v>
+        <v>416</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="H338" s="3">
         <v>0</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="J338" s="3">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="K338" s="4">
-        <v>4.0579999999999998E-2</v>
+        <v>0.199188</v>
       </c>
       <c r="L338" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17705,34 +17735,34 @@
         <v>14</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="H339" s="3">
         <v>0</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>165</v>
+        <v>881</v>
       </c>
       <c r="J339" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K339" s="4">
-        <v>2.0289999999999999E-2</v>
+        <v>6.4729999999999996E-3</v>
       </c>
       <c r="L339" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M339" s="1" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -17746,34 +17776,34 @@
         <v>14</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>416</v>
+        <v>883</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="H340" s="3">
         <v>0</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="J340" s="3">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="K340" s="4">
-        <v>0.199188</v>
+        <v>0.14241300000000001</v>
       </c>
       <c r="L340" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17787,75 +17817,75 @@
         <v>14</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E341" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H341" s="3">
+        <v>0</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="J341" s="3">
+        <v>8</v>
+      </c>
+      <c r="K341" s="4">
+        <v>5.1787E-2</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M341" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F341" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="H341" s="3">
-        <v>0</v>
-      </c>
-      <c r="I341" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J341" s="3">
+      <c r="F342" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H342" s="3">
+        <v>0</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="J342" s="3">
         <v>1</v>
       </c>
-      <c r="K341" s="4">
+      <c r="K342" s="4">
         <v>6.4729999999999996E-3</v>
       </c>
-      <c r="L341" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M341" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A342" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="G342" s="1" t="s">
+      <c r="L342" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M342" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="H342" s="3">
-        <v>0</v>
-      </c>
-      <c r="I342" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="J342" s="3">
-        <v>22</v>
-      </c>
-      <c r="K342" s="4">
-        <v>0.14241300000000001</v>
-      </c>
-      <c r="L342" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M342" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17869,34 +17899,34 @@
         <v>14</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="H343" s="3">
         <v>0</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="J343" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K343" s="4">
-        <v>5.1787E-2</v>
+        <v>4.6088999999999998E-2</v>
       </c>
       <c r="L343" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17910,37 +17940,37 @@
         <v>14</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>16</v>
+        <v>583</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="H344" s="3">
         <v>0</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="J344" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K344" s="4">
-        <v>6.4729999999999996E-3</v>
+        <v>4.0022000000000002E-2</v>
       </c>
       <c r="L344" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>13</v>
       </c>
@@ -17951,34 +17981,34 @@
         <v>14</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>895</v>
+        <v>304</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="H345" s="3">
         <v>0</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="J345" s="3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K345" s="4">
-        <v>4.6088999999999998E-2</v>
+        <v>0.242786</v>
       </c>
       <c r="L345" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17992,37 +18022,37 @@
         <v>14</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>583</v>
+        <v>303</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>900</v>
+        <v>304</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="H346" s="3">
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="J346" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K346" s="4">
-        <v>4.0022000000000002E-2</v>
+        <v>2.0788000000000001E-2</v>
       </c>
       <c r="L346" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>13</v>
       </c>
@@ -18033,34 +18063,34 @@
         <v>14</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>304</v>
+        <v>910</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>905</v>
+        <v>617</v>
       </c>
       <c r="H347" s="3">
         <v>0</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="J347" s="3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K347" s="4">
-        <v>0.242786</v>
+        <v>4.0258000000000002E-2</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M347" s="1" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18074,7 +18104,7 @@
         <v>14</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>303</v>
@@ -18083,25 +18113,25 @@
         <v>304</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H348" s="3">
         <v>0</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="J348" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K348" s="4">
-        <v>2.0788000000000001E-2</v>
+        <v>7.4371000000000007E-2</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18115,34 +18145,34 @@
         <v>14</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>911</v>
+        <v>845</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>617</v>
+        <v>917</v>
       </c>
       <c r="H349" s="3">
         <v>0</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="J349" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K349" s="4">
-        <v>4.0258000000000002E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>20</v>
+        <v>919</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18156,34 +18186,34 @@
         <v>14</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>915</v>
+        <v>845</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>304</v>
+        <v>921</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="H350" s="3">
         <v>0</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="J350" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K350" s="4">
-        <v>7.4371000000000007E-2</v>
+        <v>3.0435E-2</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>20</v>
+        <v>919</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18197,34 +18227,34 @@
         <v>14</v>
       </c>
       <c r="D351" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H351" s="3">
+        <v>0</v>
+      </c>
+      <c r="I351" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E351" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="G351" s="1" t="s">
+      <c r="J351" s="3">
+        <v>2</v>
+      </c>
+      <c r="K351" s="4">
+        <v>1.0145E-2</v>
+      </c>
+      <c r="L351" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="H351" s="3">
-        <v>0</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="J351" s="3">
-        <v>8</v>
-      </c>
-      <c r="K351" s="4">
-        <v>4.0579999999999998E-2</v>
-      </c>
-      <c r="L351" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="M351" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18238,34 +18268,34 @@
         <v>14</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>923</v>
+        <v>870</v>
       </c>
       <c r="G352" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H352" s="3">
+        <v>0</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="J352" s="3">
+        <v>8</v>
+      </c>
+      <c r="K352" s="4">
+        <v>4.0579999999999998E-2</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M352" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="H352" s="3">
-        <v>0</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="J352" s="3">
-        <v>6</v>
-      </c>
-      <c r="K352" s="4">
-        <v>3.0435E-2</v>
-      </c>
-      <c r="L352" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M352" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18279,34 +18309,34 @@
         <v>14</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>848</v>
+        <v>916</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>338</v>
+        <v>917</v>
       </c>
       <c r="H353" s="3">
         <v>0</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>849</v>
+        <v>918</v>
       </c>
       <c r="J353" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K353" s="4">
-        <v>1.0145E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18320,34 +18350,34 @@
         <v>14</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>872</v>
+        <v>921</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>873</v>
+        <v>922</v>
       </c>
       <c r="H354" s="3">
         <v>0</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>874</v>
+        <v>923</v>
       </c>
       <c r="J354" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K354" s="4">
-        <v>4.0579999999999998E-2</v>
+        <v>3.0435E-2</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18361,34 +18391,34 @@
         <v>14</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="G355" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H355" s="3">
+        <v>0</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="J355" s="3">
+        <v>6</v>
+      </c>
+      <c r="K355" s="4">
+        <v>3.0435E-2</v>
+      </c>
+      <c r="L355" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="H355" s="3">
-        <v>0</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="J355" s="3">
-        <v>8</v>
-      </c>
-      <c r="K355" s="4">
-        <v>4.0579999999999998E-2</v>
-      </c>
-      <c r="L355" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="M355" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18402,34 +18432,34 @@
         <v>14</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="H356" s="3">
         <v>0</v>
       </c>
       <c r="I356" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="J356" s="3">
+        <v>8</v>
+      </c>
+      <c r="K356" s="4">
+        <v>4.0579999999999998E-2</v>
+      </c>
+      <c r="L356" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M356" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="J356" s="3">
-        <v>6</v>
-      </c>
-      <c r="K356" s="4">
-        <v>3.0435E-2</v>
-      </c>
-      <c r="L356" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M356" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="357" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18443,34 +18473,34 @@
         <v>14</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>923</v>
+        <v>856</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>924</v>
+        <v>857</v>
       </c>
       <c r="H357" s="3">
         <v>0</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>925</v>
+        <v>45</v>
       </c>
       <c r="J357" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K357" s="4">
-        <v>3.0435E-2</v>
+        <v>2.5363E-2</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="358" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18484,34 +18514,34 @@
         <v>14</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F358" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="H358" s="3">
+        <v>0</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="J358" s="3">
+        <v>4</v>
+      </c>
+      <c r="K358" s="4">
+        <v>2.0289999999999999E-2</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M358" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="H358" s="3">
-        <v>0</v>
-      </c>
-      <c r="I358" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="J358" s="3">
-        <v>8</v>
-      </c>
-      <c r="K358" s="4">
-        <v>4.0579999999999998E-2</v>
-      </c>
-      <c r="L358" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M358" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18525,34 +18555,34 @@
         <v>14</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="H359" s="3">
         <v>0</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="J359" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K359" s="4">
-        <v>2.5363E-2</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18566,22 +18596,22 @@
         <v>14</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F360" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H360" s="3">
+        <v>0</v>
+      </c>
+      <c r="I360" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="H360" s="3">
-        <v>0</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="J360" s="3">
         <v>4</v>
@@ -18590,10 +18620,10 @@
         <v>2.0289999999999999E-2</v>
       </c>
       <c r="L360" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18607,22 +18637,22 @@
         <v>14</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="H361" s="3">
         <v>0</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>165</v>
+        <v>864</v>
       </c>
       <c r="J361" s="3">
         <v>4</v>
@@ -18631,10 +18661,10 @@
         <v>2.0289999999999999E-2</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M361" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18648,22 +18678,22 @@
         <v>14</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="H362" s="3">
         <v>0</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>863</v>
+        <v>523</v>
       </c>
       <c r="J362" s="3">
         <v>4</v>
@@ -18672,10 +18702,10 @@
         <v>2.0289999999999999E-2</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M362" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="363" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18689,34 +18719,34 @@
         <v>14</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="H363" s="3">
         <v>0</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="J363" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K363" s="4">
-        <v>2.0289999999999999E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L363" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M363" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="364" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18730,34 +18760,34 @@
         <v>14</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>847</v>
+        <v>173</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>854</v>
+        <v>930</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>855</v>
+        <v>931</v>
       </c>
       <c r="H364" s="3">
         <v>0</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>523</v>
+        <v>932</v>
       </c>
       <c r="J364" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K364" s="4">
-        <v>2.0289999999999999E-2</v>
+        <v>1.7017999999999998E-2</v>
       </c>
       <c r="L364" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="365" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18771,34 +18801,34 @@
         <v>14</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>847</v>
+        <v>173</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>869</v>
+        <v>934</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>870</v>
+        <v>935</v>
       </c>
       <c r="H365" s="3">
         <v>0</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>871</v>
+        <v>936</v>
       </c>
       <c r="J365" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K365" s="4">
-        <v>4.0579999999999998E-2</v>
+        <v>3.4036999999999998E-2</v>
       </c>
       <c r="L365" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M365" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18818,28 +18848,28 @@
         <v>239</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="G366" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="H366" s="3">
+        <v>0</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="J366" s="3">
+        <v>3</v>
+      </c>
+      <c r="K366" s="4">
+        <v>2.5527999999999999E-2</v>
+      </c>
+      <c r="L366" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M366" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="H366" s="3">
-        <v>0</v>
-      </c>
-      <c r="I366" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="J366" s="3">
-        <v>2</v>
-      </c>
-      <c r="K366" s="4">
-        <v>1.7017999999999998E-2</v>
-      </c>
-      <c r="L366" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M366" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="367" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18859,28 +18889,28 @@
         <v>239</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="H367" s="3">
         <v>0</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="J367" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K367" s="4">
-        <v>3.4036999999999998E-2</v>
+        <v>1.7017999999999998E-2</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M367" s="1" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="368" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18900,16 +18930,16 @@
         <v>239</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="H368" s="3">
         <v>0</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="J368" s="3">
         <v>3</v>
@@ -18918,10 +18948,10 @@
         <v>2.5527999999999999E-2</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M368" s="1" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18941,28 +18971,28 @@
         <v>239</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="G369" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H369" s="3">
+        <v>0</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J369" s="3">
+        <v>3</v>
+      </c>
+      <c r="K369" s="4">
+        <v>2.5527999999999999E-2</v>
+      </c>
+      <c r="L369" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M369" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="H369" s="3">
-        <v>0</v>
-      </c>
-      <c r="I369" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="J369" s="3">
-        <v>2</v>
-      </c>
-      <c r="K369" s="4">
-        <v>1.7017999999999998E-2</v>
-      </c>
-      <c r="L369" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M369" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18982,28 +19012,28 @@
         <v>239</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="H370" s="3">
         <v>0</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="J370" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K370" s="4">
-        <v>2.5527999999999999E-2</v>
+        <v>1.7017999999999998E-2</v>
       </c>
       <c r="L370" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19023,16 +19053,16 @@
         <v>239</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H371" s="3">
         <v>0</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="J371" s="3">
         <v>3</v>
@@ -19041,10 +19071,10 @@
         <v>2.5527999999999999E-2</v>
       </c>
       <c r="L371" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M371" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19064,28 +19094,28 @@
         <v>239</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H372" s="3">
         <v>0</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="J372" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K372" s="4">
-        <v>1.7017999999999998E-2</v>
+        <v>3.4036999999999998E-2</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M372" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19105,16 +19135,16 @@
         <v>239</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="H373" s="3">
         <v>0</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="J373" s="3">
         <v>3</v>
@@ -19123,10 +19153,10 @@
         <v>2.5527999999999999E-2</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M373" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19146,16 +19176,16 @@
         <v>239</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="H374" s="3">
         <v>0</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="J374" s="3">
         <v>4</v>
@@ -19164,10 +19194,10 @@
         <v>3.4036999999999998E-2</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M374" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19187,28 +19217,28 @@
         <v>239</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H375" s="3">
         <v>0</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="J375" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K375" s="4">
-        <v>2.5527999999999999E-2</v>
+        <v>8.5089999999999992E-3</v>
       </c>
       <c r="L375" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M375" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19225,31 +19255,31 @@
         <v>173</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H376" s="3">
         <v>0</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>964</v>
+        <v>409</v>
       </c>
       <c r="J376" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K376" s="4">
-        <v>3.4036999999999998E-2</v>
+        <v>8.5092000000000001E-2</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M376" s="1" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19266,31 +19296,31 @@
         <v>173</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="H377" s="3">
         <v>0</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="J377" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K377" s="4">
-        <v>8.5089999999999992E-3</v>
+        <v>9.3601000000000004E-2</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M377" s="1" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19310,16 +19340,16 @@
         <v>113</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="H378" s="3">
         <v>0</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>409</v>
+        <v>686</v>
       </c>
       <c r="J378" s="3">
         <v>10</v>
@@ -19328,10 +19358,10 @@
         <v>8.5092000000000001E-2</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M378" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19351,16 +19381,16 @@
         <v>113</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H379" s="3">
         <v>0</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="J379" s="3">
         <v>11</v>
@@ -19369,10 +19399,10 @@
         <v>9.3601000000000004E-2</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M379" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19392,28 +19422,28 @@
         <v>113</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H380" s="3">
         <v>0</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>688</v>
+        <v>126</v>
       </c>
       <c r="J380" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K380" s="4">
-        <v>8.5092000000000001E-2</v>
+        <v>9.3601000000000004E-2</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M380" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19433,28 +19463,28 @@
         <v>113</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="H381" s="3">
         <v>0</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="J381" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K381" s="4">
-        <v>9.3601000000000004E-2</v>
+        <v>6.8073999999999996E-2</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M381" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="382" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19474,28 +19504,28 @@
         <v>113</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="H382" s="3">
         <v>0</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>126</v>
+        <v>680</v>
       </c>
       <c r="J382" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K382" s="4">
-        <v>9.3601000000000004E-2</v>
+        <v>7.6582999999999998E-2</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19515,16 +19545,16 @@
         <v>113</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H383" s="3">
         <v>0</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>982</v>
+        <v>675</v>
       </c>
       <c r="J383" s="3">
         <v>8</v>
@@ -19533,10 +19563,10 @@
         <v>6.8073999999999996E-2</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M383" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19556,16 +19586,16 @@
         <v>113</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H384" s="3">
         <v>0</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="J384" s="3">
         <v>9</v>
@@ -19574,10 +19604,10 @@
         <v>7.6582999999999998E-2</v>
       </c>
       <c r="L384" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M384" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="385" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19597,28 +19627,28 @@
         <v>113</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H385" s="3">
         <v>0</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>677</v>
+        <v>412</v>
       </c>
       <c r="J385" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K385" s="4">
-        <v>6.8073999999999996E-2</v>
+        <v>0.110619</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M385" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="386" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19638,28 +19668,28 @@
         <v>113</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="H386" s="3">
         <v>0</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="J386" s="3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K386" s="4">
-        <v>7.6582999999999998E-2</v>
+        <v>0.195711</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M386" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="387" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19679,28 +19709,28 @@
         <v>113</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="H387" s="3">
         <v>0</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>412</v>
+        <v>993</v>
       </c>
       <c r="J387" s="3">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K387" s="4">
-        <v>0.110619</v>
+        <v>0.22974800000000001</v>
       </c>
       <c r="L387" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M387" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19720,28 +19750,28 @@
         <v>113</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="H388" s="3">
         <v>0</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>671</v>
+        <v>996</v>
       </c>
       <c r="J388" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K388" s="4">
-        <v>0.195711</v>
+        <v>9.3601000000000004E-2</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M388" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19758,31 +19788,31 @@
         <v>173</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
       <c r="H389" s="3">
         <v>0</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>995</v>
+        <v>409</v>
       </c>
       <c r="J389" s="3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K389" s="4">
-        <v>0.22974800000000001</v>
+        <v>8.5092000000000001E-2</v>
       </c>
       <c r="L389" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M389" s="1" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
     </row>
     <row r="390" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19799,19 +19829,19 @@
         <v>173</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>996</v>
+        <v>968</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="H390" s="3">
         <v>0</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="J390" s="3">
         <v>11</v>
@@ -19820,10 +19850,10 @@
         <v>9.3601000000000004E-2</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M390" s="1" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
     </row>
     <row r="391" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19840,19 +19870,19 @@
         <v>173</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="H391" s="3">
         <v>0</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>409</v>
+        <v>686</v>
       </c>
       <c r="J391" s="3">
         <v>10</v>
@@ -19861,10 +19891,10 @@
         <v>8.5092000000000001E-2</v>
       </c>
       <c r="L391" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M391" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="392" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19881,19 +19911,19 @@
         <v>173</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H392" s="3">
         <v>0</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="J392" s="3">
         <v>11</v>
@@ -19902,10 +19932,10 @@
         <v>9.3601000000000004E-2</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M392" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="393" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19922,31 +19952,31 @@
         <v>173</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H393" s="3">
         <v>0</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>688</v>
+        <v>126</v>
       </c>
       <c r="J393" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K393" s="4">
-        <v>8.5092000000000001E-2</v>
+        <v>9.3601000000000004E-2</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M393" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="394" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19963,31 +19993,31 @@
         <v>173</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>976</v>
+        <v>999</v>
       </c>
       <c r="H394" s="3">
         <v>0</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="J394" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K394" s="4">
-        <v>9.3601000000000004E-2</v>
+        <v>5.9563999999999999E-2</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M394" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20004,31 +20034,31 @@
         <v>173</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="H395" s="3">
         <v>0</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>126</v>
+        <v>680</v>
       </c>
       <c r="J395" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K395" s="4">
-        <v>9.3601000000000004E-2</v>
+        <v>7.6582999999999998E-2</v>
       </c>
       <c r="L395" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M395" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="396" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20045,31 +20075,31 @@
         <v>173</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="H396" s="3">
         <v>0</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>1002</v>
+        <v>675</v>
       </c>
       <c r="J396" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K396" s="4">
-        <v>5.9563999999999999E-2</v>
+        <v>6.8073999999999996E-2</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M396" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="397" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20086,19 +20116,19 @@
         <v>173</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H397" s="3">
         <v>0</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="J397" s="3">
         <v>9</v>
@@ -20107,10 +20137,10 @@
         <v>7.6582999999999998E-2</v>
       </c>
       <c r="L397" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M397" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="398" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20127,31 +20157,31 @@
         <v>173</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H398" s="3">
         <v>0</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>677</v>
+        <v>412</v>
       </c>
       <c r="J398" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K398" s="4">
-        <v>6.8073999999999996E-2</v>
+        <v>0.110619</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M398" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="399" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20168,31 +20198,31 @@
         <v>173</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="H399" s="3">
         <v>0</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>665</v>
+        <v>946</v>
       </c>
       <c r="J399" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K399" s="4">
-        <v>7.6582999999999998E-2</v>
+        <v>2.5527999999999999E-2</v>
       </c>
       <c r="L399" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M399" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="400" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20209,31 +20239,31 @@
         <v>173</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>990</v>
+        <v>938</v>
       </c>
       <c r="H400" s="3">
         <v>0</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>412</v>
+        <v>949</v>
       </c>
       <c r="J400" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K400" s="4">
-        <v>0.110619</v>
+        <v>2.5527999999999999E-2</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M400" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="401" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20250,31 +20280,31 @@
         <v>173</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F401" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="H401" s="3">
+        <v>0</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="J401" s="3">
+        <v>2</v>
+      </c>
+      <c r="K401" s="4">
+        <v>1.7017999999999998E-2</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M401" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="G401" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H401" s="3">
-        <v>0</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="J401" s="3">
-        <v>3</v>
-      </c>
-      <c r="K401" s="4">
-        <v>2.5527999999999999E-2</v>
-      </c>
-      <c r="L401" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M401" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20291,19 +20321,19 @@
         <v>173</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1006</v>
+        <v>944</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="H402" s="3">
         <v>0</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="J402" s="3">
         <v>3</v>
@@ -20312,10 +20342,10 @@
         <v>2.5527999999999999E-2</v>
       </c>
       <c r="L402" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M402" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20332,31 +20362,31 @@
         <v>173</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="H403" s="3">
         <v>0</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="J403" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K403" s="4">
-        <v>1.7017999999999998E-2</v>
+        <v>2.5527999999999999E-2</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M403" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20373,31 +20403,31 @@
         <v>173</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="H404" s="3">
         <v>0</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="J404" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K404" s="4">
-        <v>2.5527999999999999E-2</v>
+        <v>1.7017999999999998E-2</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M404" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20414,19 +20444,19 @@
         <v>173</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H405" s="3">
         <v>0</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="J405" s="3">
         <v>3</v>
@@ -20435,10 +20465,10 @@
         <v>2.5527999999999999E-2</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M405" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20455,28 +20485,28 @@
         <v>173</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H406" s="3">
         <v>0</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="J406" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K406" s="4">
-        <v>1.7017999999999998E-2</v>
+        <v>3.4036999999999998E-2</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M406" s="1" t="s">
         <v>1005</v>
@@ -20496,31 +20526,31 @@
         <v>173</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>291</v>
+        <v>1006</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="H407" s="3">
         <v>0</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="J407" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K407" s="4">
-        <v>2.5527999999999999E-2</v>
+        <v>9.3601000000000004E-2</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M407" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="408" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20537,28 +20567,28 @@
         <v>173</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>299</v>
+        <v>1006</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="H408" s="3">
         <v>0</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="J408" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K408" s="4">
-        <v>3.4036999999999998E-2</v>
+        <v>8.5089999999999992E-3</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M408" s="1" t="s">
         <v>1007</v>
@@ -20581,25 +20611,25 @@
         <v>1008</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>996</v>
+        <v>960</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>997</v>
+        <v>961</v>
       </c>
       <c r="H409" s="3">
         <v>0</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="J409" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K409" s="4">
-        <v>9.3601000000000004E-2</v>
+        <v>3.4036999999999998E-2</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M409" s="1" t="s">
         <v>1009</v>
@@ -20622,25 +20652,25 @@
         <v>1008</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="H410" s="3">
         <v>0</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>966</v>
+        <v>1011</v>
       </c>
       <c r="J410" s="3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K410" s="4">
-        <v>8.5089999999999992E-3</v>
+        <v>0.22974800000000001</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M410" s="1" t="s">
         <v>1009</v>
@@ -20660,31 +20690,31 @@
         <v>173</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>962</v>
+        <v>989</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="H411" s="3">
         <v>0</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>964</v>
+        <v>669</v>
       </c>
       <c r="J411" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K411" s="4">
-        <v>3.4036999999999998E-2</v>
+        <v>0.195711</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M411" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="412" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20701,31 +20731,31 @@
         <v>173</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1012</v>
+        <v>958</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="H412" s="3">
         <v>0</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>1013</v>
+        <v>946</v>
       </c>
       <c r="J412" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K412" s="4">
-        <v>0.22974800000000001</v>
+        <v>2.5527999999999999E-2</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M412" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="413" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20739,34 +20769,34 @@
         <v>14</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E413" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G413" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="F413" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="G413" s="1" t="s">
-        <v>992</v>
-      </c>
       <c r="H413" s="3">
         <v>0</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>671</v>
+        <v>818</v>
       </c>
       <c r="J413" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K413" s="4">
-        <v>0.195711</v>
+        <v>0.100163</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M413" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20780,34 +20810,34 @@
         <v>14</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>173</v>
+        <v>845</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>1014</v>
+        <v>252</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>960</v>
+        <v>1016</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>961</v>
+        <v>1017</v>
       </c>
       <c r="H414" s="3">
         <v>0</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>948</v>
+        <v>436</v>
       </c>
       <c r="J414" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K414" s="4">
-        <v>2.5527999999999999E-2</v>
+        <v>5.5798E-2</v>
       </c>
       <c r="L414" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M414" s="1" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20821,34 +20851,34 @@
         <v>14</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>132</v>
+        <v>845</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H415" s="3">
         <v>0</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>820</v>
+        <v>436</v>
       </c>
       <c r="J415" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K415" s="4">
-        <v>0.100163</v>
+        <v>5.5798E-2</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M415" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20862,34 +20892,34 @@
         <v>14</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F416" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H416" s="3">
+        <v>0</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J416" s="3">
+        <v>3</v>
+      </c>
+      <c r="K416" s="4">
+        <v>1.5218000000000001E-2</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M416" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="G416" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H416" s="3">
-        <v>0</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="J416" s="3">
-        <v>11</v>
-      </c>
-      <c r="K416" s="4">
-        <v>5.5798E-2</v>
-      </c>
-      <c r="L416" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M416" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20903,34 +20933,34 @@
         <v>14</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="F417" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H417" s="3">
+        <v>0</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J417" s="3">
+        <v>3</v>
+      </c>
+      <c r="K417" s="4">
+        <v>1.5218000000000001E-2</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M417" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="G417" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H417" s="3">
-        <v>0</v>
-      </c>
-      <c r="I417" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="J417" s="3">
-        <v>11</v>
-      </c>
-      <c r="K417" s="4">
-        <v>5.5798E-2</v>
-      </c>
-      <c r="L417" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M417" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="418" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20944,10 +20974,10 @@
         <v>14</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>1021</v>
@@ -20959,19 +20989,19 @@
         <v>0</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>948</v>
+        <v>449</v>
       </c>
       <c r="J418" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K418" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>5.5798E-2</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M418" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="419" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20985,10 +21015,10 @@
         <v>14</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>1021</v>
@@ -21000,19 +21030,19 @@
         <v>0</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>948</v>
+        <v>449</v>
       </c>
       <c r="J419" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K419" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>5.5798E-2</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M419" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="420" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21026,34 +21056,34 @@
         <v>14</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="F420" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H420" s="3">
+        <v>0</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J420" s="3">
+        <v>3</v>
+      </c>
+      <c r="K420" s="4">
+        <v>1.5218000000000001E-2</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M420" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="G420" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H420" s="3">
-        <v>0</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J420" s="3">
-        <v>11</v>
-      </c>
-      <c r="K420" s="4">
-        <v>5.5798E-2</v>
-      </c>
-      <c r="L420" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M420" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21067,34 +21097,34 @@
         <v>14</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F421" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H421" s="3">
+        <v>0</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J421" s="3">
+        <v>3</v>
+      </c>
+      <c r="K421" s="4">
+        <v>1.5218000000000001E-2</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M421" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="G421" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H421" s="3">
-        <v>0</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J421" s="3">
-        <v>11</v>
-      </c>
-      <c r="K421" s="4">
-        <v>5.5798E-2</v>
-      </c>
-      <c r="L421" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M421" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="422" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21108,10 +21138,10 @@
         <v>14</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>1026</v>
@@ -21123,19 +21153,19 @@
         <v>0</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>948</v>
+        <v>460</v>
       </c>
       <c r="J422" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K422" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>6.087E-2</v>
       </c>
       <c r="L422" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M422" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="423" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21149,10 +21179,10 @@
         <v>14</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>1026</v>
@@ -21164,19 +21194,19 @@
         <v>0</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>948</v>
+        <v>460</v>
       </c>
       <c r="J423" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K423" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>6.087E-2</v>
       </c>
       <c r="L423" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="424" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21190,10 +21220,10 @@
         <v>14</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>1028</v>
@@ -21205,19 +21235,19 @@
         <v>0</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>460</v>
+        <v>946</v>
       </c>
       <c r="J424" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K424" s="4">
-        <v>6.087E-2</v>
+        <v>1.5218000000000001E-2</v>
       </c>
       <c r="L424" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M424" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="425" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21231,10 +21261,10 @@
         <v>14</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>1028</v>
@@ -21246,19 +21276,19 @@
         <v>0</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>460</v>
+        <v>946</v>
       </c>
       <c r="J425" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K425" s="4">
-        <v>6.087E-2</v>
+        <v>1.5218000000000001E-2</v>
       </c>
       <c r="L425" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M425" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="426" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21272,10 +21302,10 @@
         <v>14</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>1030</v>
@@ -21287,19 +21317,19 @@
         <v>0</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>948</v>
+        <v>277</v>
       </c>
       <c r="J426" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K426" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>5.5798E-2</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M426" s="1" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="427" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21313,10 +21343,10 @@
         <v>14</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>1030</v>
@@ -21328,19 +21358,19 @@
         <v>0</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>948</v>
+        <v>277</v>
       </c>
       <c r="J427" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K427" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>5.5798E-2</v>
       </c>
       <c r="L427" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M427" s="1" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="428" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21354,34 +21384,34 @@
         <v>14</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="F428" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H428" s="3">
+        <v>0</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J428" s="3">
+        <v>3</v>
+      </c>
+      <c r="K428" s="4">
+        <v>1.5218000000000001E-2</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M428" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H428" s="3">
-        <v>0</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J428" s="3">
-        <v>11</v>
-      </c>
-      <c r="K428" s="4">
-        <v>5.5798E-2</v>
-      </c>
-      <c r="L428" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M428" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="429" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21395,34 +21425,34 @@
         <v>14</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F429" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H429" s="3">
+        <v>0</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J429" s="3">
+        <v>3</v>
+      </c>
+      <c r="K429" s="4">
+        <v>1.5218000000000001E-2</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M429" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H429" s="3">
-        <v>0</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J429" s="3">
-        <v>11</v>
-      </c>
-      <c r="K429" s="4">
-        <v>5.5798E-2</v>
-      </c>
-      <c r="L429" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M429" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="430" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21436,10 +21466,10 @@
         <v>14</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>1035</v>
@@ -21451,19 +21481,19 @@
         <v>0</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>951</v>
+        <v>284</v>
       </c>
       <c r="J430" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K430" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M430" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="431" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21477,10 +21507,10 @@
         <v>14</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>1035</v>
@@ -21492,19 +21522,19 @@
         <v>0</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>951</v>
+        <v>284</v>
       </c>
       <c r="J431" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K431" s="4">
-        <v>1.5218000000000001E-2</v>
+        <v>4.0579999999999998E-2</v>
       </c>
       <c r="L431" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M431" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="432" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21518,10 +21548,10 @@
         <v>14</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>1037</v>
@@ -21533,19 +21563,19 @@
         <v>0</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>284</v>
+        <v>932</v>
       </c>
       <c r="J432" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K432" s="4">
-        <v>4.0579999999999998E-2</v>
+        <v>1.0145E-2</v>
       </c>
       <c r="L432" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M432" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="433" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21559,10 +21589,10 @@
         <v>14</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>1037</v>
@@ -21574,19 +21604,19 @@
         <v>0</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>284</v>
+        <v>932</v>
       </c>
       <c r="J433" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K433" s="4">
-        <v>4.0579999999999998E-2</v>
+        <v>1.0145E-2</v>
       </c>
       <c r="L433" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M433" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="434" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21600,10 +21630,10 @@
         <v>14</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>1039</v>
@@ -21615,19 +21645,19 @@
         <v>0</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>934</v>
+        <v>298</v>
       </c>
       <c r="J434" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K434" s="4">
-        <v>1.0145E-2</v>
+        <v>4.5652999999999999E-2</v>
       </c>
       <c r="L434" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M434" s="1" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="435" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21641,10 +21671,10 @@
         <v>14</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>1039</v>
@@ -21656,19 +21686,19 @@
         <v>0</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>934</v>
+        <v>298</v>
       </c>
       <c r="J435" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K435" s="4">
-        <v>1.0145E-2</v>
+        <v>4.5652999999999999E-2</v>
       </c>
       <c r="L435" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M435" s="1" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="436" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21682,34 +21712,34 @@
         <v>14</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>285</v>
       </c>
       <c r="F436" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H436" s="3">
+        <v>0</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="J436" s="3">
+        <v>2</v>
+      </c>
+      <c r="K436" s="4">
+        <v>1.0145E-2</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M436" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="G436" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H436" s="3">
-        <v>0</v>
-      </c>
-      <c r="I436" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J436" s="3">
-        <v>9</v>
-      </c>
-      <c r="K436" s="4">
-        <v>4.5652999999999999E-2</v>
-      </c>
-      <c r="L436" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M436" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="437" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21723,34 +21753,34 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="F437" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H437" s="3">
+        <v>0</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="J437" s="3">
+        <v>2</v>
+      </c>
+      <c r="K437" s="4">
+        <v>1.0145E-2</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M437" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="G437" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H437" s="3">
-        <v>0</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J437" s="3">
-        <v>9</v>
-      </c>
-      <c r="K437" s="4">
-        <v>4.5652999999999999E-2</v>
-      </c>
-      <c r="L437" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M437" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="438" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21764,10 +21794,10 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>847</v>
+        <v>341</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>1044</v>
@@ -21779,22 +21809,22 @@
         <v>0</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>934</v>
+        <v>1046</v>
       </c>
       <c r="J438" s="3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K438" s="4">
-        <v>1.0145E-2</v>
+        <v>0.32062299999999999</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M438" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
         <v>13</v>
       </c>
@@ -21805,34 +21835,34 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="H439" s="3">
         <v>0</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>934</v>
+        <v>1050</v>
       </c>
       <c r="J439" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K439" s="4">
-        <v>1.0145E-2</v>
+        <v>0.11666799999999999</v>
       </c>
       <c r="L439" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M439" s="1" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="440" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21846,37 +21876,37 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>341</v>
+        <v>713</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="H440" s="3">
         <v>0</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="J440" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K440" s="4">
-        <v>0.32062299999999999</v>
+        <v>0.157691</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M440" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
         <v>13</v>
       </c>
@@ -21887,34 +21917,34 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>847</v>
+        <v>420</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="H441" s="3">
         <v>0</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="J441" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K441" s="4">
-        <v>0.11666799999999999</v>
+        <v>0.177036</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M441" s="1" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="442" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21928,34 +21958,34 @@
         <v>14</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>715</v>
+        <v>420</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="H442" s="3">
         <v>0</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="J442" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K442" s="4">
-        <v>0.157691</v>
+        <v>8.4303000000000003E-2</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M442" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="443" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21969,34 +21999,34 @@
         <v>14</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>420</v>
+        <v>308</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="H443" s="3">
         <v>0</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="J443" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K443" s="4">
-        <v>0.177036</v>
+        <v>0.14916499999999999</v>
       </c>
       <c r="L443" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M443" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="444" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22010,37 +22040,37 @@
         <v>14</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="H444" s="3">
         <v>0</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="J444" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K444" s="4">
-        <v>8.4303000000000003E-2</v>
+        <v>0.150695</v>
       </c>
       <c r="L444" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M444" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A445" s="6" t="s">
         <v>13</v>
       </c>
@@ -22051,34 +22081,34 @@
         <v>14</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>308</v>
+        <v>568</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="H445" s="3">
         <v>0</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="J445" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K445" s="4">
-        <v>0.14916499999999999</v>
+        <v>0.20652999999999999</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M445" s="1" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="446" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22095,34 +22125,34 @@
         <v>208</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="H446" s="3">
         <v>0</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="J446" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K446" s="4">
-        <v>0.150695</v>
+        <v>2.7399E-2</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M446" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="6" t="s">
         <v>13</v>
       </c>
@@ -22133,34 +22163,34 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>568</v>
+        <v>208</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="H447" s="3">
         <v>0</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="J447" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K447" s="4">
-        <v>0.20652999999999999</v>
+        <v>6.1648000000000001E-2</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M447" s="1" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="448" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22177,31 +22207,31 @@
         <v>208</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="H448" s="3">
         <v>0</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="J448" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K448" s="4">
-        <v>2.7399E-2</v>
+        <v>6.8500000000000002E-3</v>
       </c>
       <c r="L448" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M448" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="449" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22215,34 +22245,34 @@
         <v>14</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="H449" s="3">
         <v>0</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="J449" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K449" s="4">
-        <v>6.1648000000000001E-2</v>
+        <v>5.2735999999999998E-2</v>
       </c>
       <c r="L449" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M449" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="450" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22256,34 +22286,34 @@
         <v>14</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="H450" s="3">
         <v>0</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="J450" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K450" s="4">
-        <v>6.8500000000000002E-3</v>
+        <v>2.6367999999999999E-2</v>
       </c>
       <c r="L450" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M450" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="451" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22300,31 +22330,31 @@
         <v>400</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="G451" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H451" s="3">
+        <v>0</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J451" s="3">
+        <v>5</v>
+      </c>
+      <c r="K451" s="4">
+        <v>6.5920000000000006E-2</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M451" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="H451" s="3">
-        <v>0</v>
-      </c>
-      <c r="I451" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J451" s="3">
-        <v>4</v>
-      </c>
-      <c r="K451" s="4">
-        <v>5.2735999999999998E-2</v>
-      </c>
-      <c r="L451" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M451" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="452" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22338,34 +22368,34 @@
         <v>14</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="H452" s="3">
         <v>0</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>1092</v>
+        <v>864</v>
       </c>
       <c r="J452" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K452" s="4">
-        <v>2.6367999999999999E-2</v>
+        <v>3.3721000000000001E-2</v>
       </c>
       <c r="L452" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M452" s="1" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="453" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22379,34 +22409,34 @@
         <v>14</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="H453" s="3">
         <v>0</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="J453" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K453" s="4">
-        <v>6.5920000000000006E-2</v>
+        <v>3.3721000000000001E-2</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M453" s="1" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="454" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22420,34 +22450,34 @@
         <v>14</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1096</v>
+        <v>930</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>1097</v>
+        <v>931</v>
       </c>
       <c r="H454" s="3">
         <v>0</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>866</v>
+        <v>932</v>
       </c>
       <c r="J454" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K454" s="4">
-        <v>3.3721000000000001E-2</v>
+        <v>1.7018379850238255E-2</v>
       </c>
       <c r="L454" s="1" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="M454" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="455" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -22461,34 +22491,321 @@
         <v>14</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1099</v>
+        <v>934</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>1100</v>
+        <v>935</v>
       </c>
       <c r="H455" s="3">
         <v>0</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>1101</v>
+        <v>936</v>
       </c>
       <c r="J455" s="3">
         <v>4</v>
       </c>
       <c r="K455" s="4">
-        <v>3.3721000000000001E-2</v>
+        <v>3.403675970047651E-2</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="M455" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H456" s="3">
+        <v>0</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J456" s="3">
+        <v>3</v>
+      </c>
+      <c r="K456" s="4">
+        <v>2.5527569775357386E-2</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M456" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A457" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H457" s="3">
+        <v>0</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J457" s="3">
+        <v>5</v>
+      </c>
+      <c r="K457" s="4">
+        <v>4.215140785702242E-2</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M457" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H458" s="3">
+        <v>0</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J458" s="3">
+        <v>5</v>
+      </c>
+      <c r="K458" s="4">
+        <v>4.215140785702242E-2</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H459" s="3">
+        <v>0</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J459" s="3">
+        <v>10</v>
+      </c>
+      <c r="K459" s="4">
+        <v>4.6345645826574591E-2</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M459" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A460" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H460" s="3">
+        <v>0</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J460" s="3">
+        <v>10</v>
+      </c>
+      <c r="K460" s="4">
+        <v>4.6345645826574591E-2</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A461" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H461" s="3">
+        <v>0</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J461" s="3">
+        <v>9</v>
+      </c>
+      <c r="K461" s="4">
+        <v>4.1711081243917134E-2</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H462" s="3">
+        <v>0</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J462" s="3">
+        <v>2</v>
+      </c>
+      <c r="K462" s="4">
+        <v>9.269129165314919E-3</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_2_1.xlsx
+++ b/data/coded_segments/md_2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6306"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="1130">
   <si>
     <t>Color</t>
   </si>
@@ -3416,6 +3416,30 @@
   </si>
   <si>
     <t>7/22/2019 11:40:00</t>
+  </si>
+  <si>
+    <t>1: 504</t>
+  </si>
+  <si>
+    <t>1: 509</t>
+  </si>
+  <si>
+    <t>dattaray</t>
+  </si>
+  <si>
+    <t>9/17/2019 11:59:38</t>
+  </si>
+  <si>
+    <t>1: 3671</t>
+  </si>
+  <si>
+    <t>1: 3678</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>9/17/2019 12:02:51</t>
   </si>
 </sst>
 </file>
@@ -3430,19 +3454,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3849,7 +3870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M465"/>
+  <dimension ref="A1:M467"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22929,6 +22950,88 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="466" spans="1:13" ht="15.6">
+      <c r="A466" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H466" s="3">
+        <v>0</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="J466" s="3">
+        <v>6</v>
+      </c>
+      <c r="K466" s="4">
+        <v>7.9103493737640085E-2</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" ht="15.6">
+      <c r="A467" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H467" s="3">
+        <v>0</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J467" s="3">
+        <v>8</v>
+      </c>
+      <c r="K467" s="4">
+        <v>7.8678206136900075E-2</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
